--- a/biology/Médecine/Nausée/Nausée.xlsx
+++ b/biology/Médecine/Nausée/Nausée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Naus%C3%A9e</t>
+          <t>Nausée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nausée (du grec ancien ναυς / naus, « navire ») est la sensation de mal-être et d'inconfort qui accompagne l'éventuelle approche des vomissements[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nausée (du grec ancien ναυς / naus, « navire ») est la sensation de mal-être et d'inconfort qui accompagne l'éventuelle approche des vomissements. 
 Cet état est souvent accompagné de contractions de l’estomac, éventuellement préalables à un rejet du bol alimentaire dans l’œsophage préparant un vomissement.
 Ce n'est pas une maladie en soi, mais un symptôme qui peut être dû à différentes maladies ou médicaments et d'autres conditions, qui ne traduit pas forcément un malaise au niveau de l'estomac. La nausée est généralement associée à d'autres symptômes (vertiges, transpiration, sueurs froides, frissons, contractions rythmiques involontaires des muscles de la ceinture pelvienne et abdominale (haut-le-cœur), sensation de brutale faiblesse, perte totale de l'appétit, sensibilité exacerbée aux odeurs, sentiment de détresse et malaise vagal – parfois).
 Si les nausées sont une réaction à une intoxication alimentaire ou à un abus d’alcool, les vomissements ne doivent pas être empêchés (c'est un des moyens pour l'organisme de se détoxiquer). Mais des nausées chroniques ou post-opératoires doivent être comprises et traitées.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naus%C3%A9e</t>
+          <t>Nausée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Des nausées peuvent être induites par :
 un grand nombre de maladies infectieuses dont grippe, méningite, gastro-entérite ;
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naus%C3%A9e</t>
+          <t>Nausée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,13 +573,15 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est possible de commencer par un traitement symptomatique :
 se calmer soit en s’allongeant, soit en respirant de l’air frais pour stabiliser son état physique ;
 boire beaucoup d’eau fraiche à petites gorgées et manger froid et léger.
 Le traitement médical des nausées reste cependant lié à leur étiologie. Au-delà du traitement de la cause de la nausée, ce sont en général des antiémétiques et/ou des antinaupathiques.
-Le gingembre est utilisé dans l'antiquité en Chine pour ses propriétés antiémétiques[2].
+Le gingembre est utilisé dans l'antiquité en Chine pour ses propriétés antiémétiques.
 </t>
         </is>
       </c>
